--- a/7月提成表/7月份提成表正式版（预）.xlsx
+++ b/7月提成表/7月份提成表正式版（预）.xlsx
@@ -11,8 +11,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">[1]#REF!$A$1:$O$42</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -532,6 +535,9903 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="20元"/>
+      <sheetName val="40元"/>
+      <sheetName val="60元"/>
+      <sheetName val="7.27"/>
+      <sheetName val="7.29"/>
+      <sheetName val="7.30"/>
+      <sheetName val="8.1"/>
+      <sheetName val="8.3"/>
+      <sheetName val="8.6"/>
+      <sheetName val="8.10"/>
+      <sheetName val="8.11"/>
+      <sheetName val="8.12"/>
+      <sheetName val="8.16"/>
+      <sheetName val="8.18"/>
+      <sheetName val="8.19"/>
+      <sheetName val="8.20"/>
+      <sheetName val="8.21"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>武煤百江燃气用户保险信息登记表</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>序号</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>用户编号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>42966</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>226316001106740</v>
+          </cell>
+          <cell r="C3">
+            <v>1733312392</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>魏建利</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>420124197610308368</v>
+          </cell>
+          <cell r="I3">
+            <v>13971272546</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>钢都公寓1-4-404</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>42962</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>226316001106664</v>
+          </cell>
+          <cell r="C4">
+            <v>2452851727</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>蔡良文</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>420103197012233739</v>
+          </cell>
+          <cell r="I4">
+            <v>13317178389</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>钢都公寓2-1-101</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>42962</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>226316001106665</v>
+          </cell>
+          <cell r="C5">
+            <v>1104657942</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>汪官汉</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>420107194412160032</v>
+          </cell>
+          <cell r="I5">
+            <v>18971074832</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>钢都公寓2-3-501</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>42962</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>226316001106666</v>
+          </cell>
+          <cell r="C6">
+            <v>5309563309</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>陈成</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>420105195209070033</v>
+          </cell>
+          <cell r="I6">
+            <v>13659896292</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>钢都公寓1-3-501</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>42962</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>226316001106667</v>
+          </cell>
+          <cell r="C7">
+            <v>3808619646</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>金再香</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>420107196111283724</v>
+          </cell>
+          <cell r="I7">
+            <v>13607142501</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>钢都公寓1-3-402</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>42962</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>226316001106668</v>
+          </cell>
+          <cell r="C8">
+            <v>6820850725</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>韩大桂</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>420107195009160029</v>
+          </cell>
+          <cell r="I8">
+            <v>15307145673</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>钢都公寓1-4-602</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>42962</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>226316001106669</v>
+          </cell>
+          <cell r="C9">
+            <v>9515509595</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>桂三英</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>420111196205131023</v>
+          </cell>
+          <cell r="I9">
+            <v>15927073964</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>钢都公寓1-4-302</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>42962</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>226316001106670</v>
+          </cell>
+          <cell r="C10">
+            <v>2526009694</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>刘锟</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>420122197708170915</v>
+          </cell>
+          <cell r="I10">
+            <v>13995684558</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>钢都公寓1-3-202</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>42962</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>226316001106671</v>
+          </cell>
+          <cell r="C11">
+            <v>7716740685</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>陈家发</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>420123197102210499</v>
+          </cell>
+          <cell r="I11">
+            <v>13871784355</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>钢都公寓1-1-401</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>42962</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>226316001106672</v>
+          </cell>
+          <cell r="C12">
+            <v>3710393072</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>刘焕树</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>420107195002202919</v>
+          </cell>
+          <cell r="I12">
+            <v>18007171891</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>钢都公寓2-3-201</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>42962</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>226316001106725</v>
+          </cell>
+          <cell r="C13">
+            <v>4233161189</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>胡学雄</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>420107197201242065</v>
+          </cell>
+          <cell r="I13">
+            <v>15927558772</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>金鹤园81-3-502</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>邹玉志</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>42962</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>226316001106726</v>
+          </cell>
+          <cell r="C14">
+            <v>8130457516</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>周北芳</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>420107195412273007</v>
+          </cell>
+          <cell r="I14">
+            <v>13659872957</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>金鹤园70-1-401</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>邹玉志</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>42962</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>226316001106724</v>
+          </cell>
+          <cell r="C15">
+            <v>7583708669</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>初三才</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>42098419740315751X</v>
+          </cell>
+          <cell r="I15">
+            <v>13545123077</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>金鹤园9-2-501</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>邹玉志</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>42962</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>226316001106727</v>
+          </cell>
+          <cell r="C16">
+            <v>5430941391</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>纪根</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>420122193310140910</v>
+          </cell>
+          <cell r="I16">
+            <v>13871553505</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>金鹤园D-1-2201</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>邹玉志</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>42962</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>226316001106708</v>
+          </cell>
+          <cell r="C17">
+            <v>4327165930</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>邵建创</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>420107194908013730</v>
+          </cell>
+          <cell r="I17">
+            <v>13007143113</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>金鹤园D-2-2302</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>邹玉志</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>42965</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>226316001106673</v>
+          </cell>
+          <cell r="C18">
+            <v>9887343768</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>高华军</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>420111197510062331</v>
+          </cell>
+          <cell r="I18">
+            <v>15072305339</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v>钢都公寓2-1-201</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>42965</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>226316001106674</v>
+          </cell>
+          <cell r="C19">
+            <v>8654647774</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>代红波</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>422022197108153427</v>
+          </cell>
+          <cell r="I19">
+            <v>18071722346</v>
+          </cell>
+          <cell r="J19" t="str">
+            <v>钢都公寓2-3-602</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>张波</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>序号</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>用户编号</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>8.1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>4804055</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>226316001102846</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>2379246050</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>李汉江</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>420103196002104971</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>1960.2.10</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>15207105986</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>马场后街337号3楼</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>八古墩</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>赵宋武/彭莉</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>8-11</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>1402677</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>226316001103137</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>2191457494</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>史世勤</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>420106193407295214</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>1934.07.29</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>87801879</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>鲁巷中医4栋2门102室</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>关山</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>周世国</v>
+          </cell>
+          <cell r="O3">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1</v>
+          </cell>
+          <cell r="B4">
+            <v>7.29</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>9647721</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>226316001105080</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>5709466715</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>方乐欢</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>420102194809022832</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>1948.9.2</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>13212794045</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>新江岸一村20号3单元701室</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>魏国堂</v>
+          </cell>
+          <cell r="O4">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1</v>
+          </cell>
+          <cell r="B5">
+            <v>7.29</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>9647721</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>226316001105080</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>5709466715</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>方乐欢</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>420102194809022832</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>1948.9.2</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>13212794045</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>新江岸一村20号3单元701室</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>魏国堂</v>
+          </cell>
+          <cell r="O5">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1</v>
+          </cell>
+          <cell r="B6">
+            <v>7.29</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>9647721</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>226316001105080</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>5709466715</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>方乐欢</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>420102194809022832</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>1948.9.2</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>13212794045</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>新江岸一村20号3单元701室</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>魏国堂</v>
+          </cell>
+          <cell r="O6">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>7-27</v>
+          </cell>
+          <cell r="C7">
+            <v>9174401</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>226316001102247</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>5975245228</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>罗明亮</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>420103197711133235</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J7">
+            <v>28442</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>15827552815</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>江宏新村铁路小区4-1-301</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>张邦国</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>客服304</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>7-27</v>
+          </cell>
+          <cell r="C8">
+            <v>9174401</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>226316001102247</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>5975245228</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>罗明亮</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>420103197711133235</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J8">
+            <v>28442</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>15827552815</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>江宏新村铁路小区4-1-301</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>张邦国</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>客服304</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1</v>
+          </cell>
+          <cell r="B9">
+            <v>7.16</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>9142197</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>226316001103440</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>7576783663</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>祝锋</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>42010619791114363x</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>79.11.14</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>15926400315</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>桥梁村174号A栋3楼</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>杨园</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>方辉礼</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1</v>
+          </cell>
+          <cell r="B10">
+            <v>8.1300000000000008</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>9112235</v>
+          </cell>
+          <cell r="D10">
+            <v>226316001102738</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>7880378770</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>魏崇友</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>420105194311272032</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J10">
+            <v>16037</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>13971588435</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>民主路鸿祥巷24号2单元5楼</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>农讲所</v>
+          </cell>
+          <cell r="N10" t="str">
+            <v>吴顺成</v>
+          </cell>
+          <cell r="O10">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1</v>
+          </cell>
+          <cell r="B11">
+            <v>42943</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>1003578</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>226316001104882</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>9160550423</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>徐益建</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>42010619570101083x</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J11">
+            <v>19570101</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>88044976</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>中山路412号6门602室（按602的门铃</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>黄鹤楼</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>朱兴福</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1</v>
+          </cell>
+          <cell r="B12">
+            <v>42943</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>1003578</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>226316001104882</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>9160550423</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>徐益建</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>42010619570101083x</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J12">
+            <v>19570101</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>88044976</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>中山路412号6门602室（按602的门铃</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>黄鹤楼</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>朱兴福</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1</v>
+          </cell>
+          <cell r="B13">
+            <v>8.5</v>
+          </cell>
+          <cell r="C13">
+            <v>9108739</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>226316001101736</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>2244892115</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>杨贵球</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>422127196407212711</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>1964.7.21</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>15392965339</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>荣泰小区4栋3单元302</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>石牌岭</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>洪续金</v>
+          </cell>
+          <cell r="O13">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1</v>
+          </cell>
+          <cell r="B14">
+            <v>8.5</v>
+          </cell>
+          <cell r="C14">
+            <v>9108739</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>226316001101736</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>2244892115</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>杨贵球</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>422127196407212711</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>1964.7.21</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>15392965339</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>荣泰小区4栋3单元302</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>石牌岭</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>洪续金</v>
+          </cell>
+          <cell r="O14">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2</v>
+          </cell>
+          <cell r="B15">
+            <v>8.11</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>4807738</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>226316001102847</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>5371551685</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>李万英</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>420103195203264918</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>1952.3.26</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>15327187468</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>唐家墩马场后街279号2楼</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>八古墩</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>丁三伙/彭莉</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2</v>
+          </cell>
+          <cell r="B16">
+            <v>7.29</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>9554190</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>226316001105081</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>3200722873</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>张建生</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>420102195502240813</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>1955.2.24</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>15717121982</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>三阳路林趾小区40号5楼</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>赵英平</v>
+          </cell>
+          <cell r="O16">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2</v>
+          </cell>
+          <cell r="B17">
+            <v>7.29</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>9554190</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>226316001105081</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>3200722873</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>张建生</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>420102195502240813</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>1955.2.24</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>15717121982</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>三阳路林趾小区40号5楼</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>赵英平</v>
+          </cell>
+          <cell r="O17">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2</v>
+          </cell>
+          <cell r="B18">
+            <v>7.29</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>9554190</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>226316001105081</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>3200722873</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>张建生</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>420102195502240813</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v>1955.2.24</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>15717121982</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>三阳路林趾小区40号5楼</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N18" t="str">
+            <v>赵英平</v>
+          </cell>
+          <cell r="O18">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>7-28</v>
+          </cell>
+          <cell r="C19">
+            <v>1007270</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>226316001102248</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>9063116317</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>余佳春</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>420106195102220413</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J19">
+            <v>18681</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>13907180148</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>武珞路三巷25号东门602室</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N19" t="str">
+            <v>鲍次直</v>
+          </cell>
+          <cell r="O19" t="str">
+            <v>客服301</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>7-28</v>
+          </cell>
+          <cell r="C20">
+            <v>1007270</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>226316001102248</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>9063116317</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>余佳春</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>420106195102220413</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J20">
+            <v>18681</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>13907180148</v>
+          </cell>
+          <cell r="L20" t="str">
+            <v>武珞路三巷25号东门602室</v>
+          </cell>
+          <cell r="M20" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N20" t="str">
+            <v>鲍次直</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>客服301</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2</v>
+          </cell>
+          <cell r="B21">
+            <v>6.26</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>2219639</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>226316001103435</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>9204847645</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>周洪</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v>420103196608260813</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J21" t="str">
+            <v>66.08.26</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>15342218870</v>
+          </cell>
+          <cell r="L21" t="str">
+            <v>才茂街11号1-501</v>
+          </cell>
+          <cell r="M21" t="str">
+            <v>杨园</v>
+          </cell>
+          <cell r="N21" t="str">
+            <v>方辉礼</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2</v>
+          </cell>
+          <cell r="B22">
+            <v>42945</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>9174494</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>226316001104884</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>6368499324</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>刘祖元</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>420106195303260438</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>1953.3.26</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>13871204532</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>平湖门小区B栋1单元7楼3门</v>
+          </cell>
+          <cell r="M22" t="str">
+            <v>黄鹤楼</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>祝寿年</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2</v>
+          </cell>
+          <cell r="B23">
+            <v>42945</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>9174494</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>226316001104884</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>6368499324</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>刘祖元</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v>420106195303260438</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J23" t="str">
+            <v>1953.3.26</v>
+          </cell>
+          <cell r="K23" t="str">
+            <v>13871204532</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>平湖门小区B栋1单元7楼3门</v>
+          </cell>
+          <cell r="M23" t="str">
+            <v>黄鹤楼</v>
+          </cell>
+          <cell r="N23" t="str">
+            <v>祝寿年</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>3</v>
+          </cell>
+          <cell r="B24">
+            <v>7.29</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>9239144</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>226316001105097</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>2171489062</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>陈荣</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>42012119700820484X</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>1970.8.20</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>18207169881</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>江大路24-1号24栋1单元407</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>李国道</v>
+          </cell>
+          <cell r="O24">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>3</v>
+          </cell>
+          <cell r="B25">
+            <v>7.29</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>9239144</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>226316001105097</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>2171489062</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>陈荣</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>42012119700820484X</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v>1970.8.20</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>18207169881</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>江大路24-1号24栋1单元407</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N25" t="str">
+            <v>李国道</v>
+          </cell>
+          <cell r="O25">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>3</v>
+          </cell>
+          <cell r="B26">
+            <v>7.29</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>9239144</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>226316001105097</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>2171489062</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>陈荣</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>42012119700820484X</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v>1970.8.20</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>18207169881</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>江大路24-1号24栋1单元407</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N26" t="str">
+            <v>李国道</v>
+          </cell>
+          <cell r="O26">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>3</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>8-4</v>
+          </cell>
+          <cell r="C27">
+            <v>9710653</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>226316001102249</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>3621397259</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>朱振华</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>420133197603013725</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J27">
+            <v>27820</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>15337257815</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>武汉市洪山区江宏新村108号3楼</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>张咏平</v>
+          </cell>
+          <cell r="O27" t="str">
+            <v>客服302</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>3</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>8-4</v>
+          </cell>
+          <cell r="C28">
+            <v>9710653</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>226316001102249</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>3621397259</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>朱振华</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>420133197603013725</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J28">
+            <v>27820</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>15337257815</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>武汉市洪山区江宏新村108号3楼</v>
+          </cell>
+          <cell r="M28" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N28" t="str">
+            <v>张咏平</v>
+          </cell>
+          <cell r="O28" t="str">
+            <v>客服302</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>3</v>
+          </cell>
+          <cell r="B29">
+            <v>6.26</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>9869002</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>226316001103438</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>2141566174</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>张洪利</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>420106196304253656</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v>63.04.25</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>15527930358</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>杨园村2栋151号5楼3号</v>
+          </cell>
+          <cell r="M29" t="str">
+            <v>杨园</v>
+          </cell>
+          <cell r="N29" t="str">
+            <v>方辉礼</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>3</v>
+          </cell>
+          <cell r="B30">
+            <v>42960</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>1000084</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>226316001104883</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>8772286348</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>刘恩显</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>420106195604241222</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v>1956.4.24</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>15807125304</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>省文化厅舍4门502读书院后门后长街■</v>
+          </cell>
+          <cell r="M30" t="str">
+            <v>黄鹤楼</v>
+          </cell>
+          <cell r="N30" t="str">
+            <v>鲍俢良</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>4</v>
+          </cell>
+          <cell r="B31">
+            <v>7.31</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>9725503</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>226316001105082</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>7166888347</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>蔡宏伟</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>420102197001090035</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J31" t="str">
+            <v>1970.1.9</v>
+          </cell>
+          <cell r="K31" t="str">
+            <v>18771983019</v>
+          </cell>
+          <cell r="L31" t="str">
+            <v>三眼桥4村294号教委大楼1门501（三眼桥小学</v>
+          </cell>
+          <cell r="M31" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N31" t="str">
+            <v>姜乐成</v>
+          </cell>
+          <cell r="O31">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>4</v>
+          </cell>
+          <cell r="B32">
+            <v>7.31</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>9725503</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>226316001105082</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>7166888347</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>蔡宏伟</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>420102197001090035</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v>1970.1.9</v>
+          </cell>
+          <cell r="K32" t="str">
+            <v>18771983019</v>
+          </cell>
+          <cell r="L32" t="str">
+            <v>三眼桥4村294号教委大楼1门501（三眼桥小学</v>
+          </cell>
+          <cell r="M32" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N32" t="str">
+            <v>姜乐成</v>
+          </cell>
+          <cell r="O32">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>4</v>
+          </cell>
+          <cell r="B33">
+            <v>7.31</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>9725503</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>226316001105082</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>7166888347</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>蔡宏伟</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v>420102197001090035</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J33" t="str">
+            <v>1970.1.9</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>18771983019</v>
+          </cell>
+          <cell r="L33" t="str">
+            <v>三眼桥4村294号教委大楼1门501（三眼桥小学</v>
+          </cell>
+          <cell r="M33" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N33" t="str">
+            <v>姜乐成</v>
+          </cell>
+          <cell r="O33">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>4</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>8-13</v>
+          </cell>
+          <cell r="C34">
+            <v>9549281</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>226316001102250</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>6057840404</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>李士菊</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H34" t="str">
+            <v>42242819650905004X</v>
+          </cell>
+          <cell r="I34" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J34">
+            <v>23990</v>
+          </cell>
+          <cell r="K34" t="str">
+            <v>13476814107</v>
+          </cell>
+          <cell r="L34" t="str">
+            <v>武南三村52号1楼2号</v>
+          </cell>
+          <cell r="M34" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N34" t="str">
+            <v>张邦国</v>
+          </cell>
+          <cell r="O34" t="str">
+            <v>客服302</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>4</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>8-13</v>
+          </cell>
+          <cell r="C35">
+            <v>9549281</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>226316001102250</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>6057840404</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>李士菊</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>42242819650905004X</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J35">
+            <v>23990</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>13476814107</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>武南三村52号1楼2号</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>张邦国</v>
+          </cell>
+          <cell r="O35" t="str">
+            <v>客服302</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>4</v>
+          </cell>
+          <cell r="B36">
+            <v>6.26</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>9145598</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>226316001103437</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>2339293363</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>陈彩芳</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>420106296510173681</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>65.10.17</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>15927461328</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>纺机小区9栋1单元5楼</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>杨园</v>
+          </cell>
+          <cell r="N36" t="str">
+            <v>方辉礼</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>5</v>
+          </cell>
+          <cell r="B37">
+            <v>8.1</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>226316001105076</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>3768191119</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>丘</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>420102197008281029</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v>1970.8.28</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>15377629486</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>武汉市江岸区晟蓝花园5栋1305</v>
+          </cell>
+          <cell r="M37" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N37" t="str">
+            <v>何泽星</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>5</v>
+          </cell>
+          <cell r="B38">
+            <v>8.1</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>226316001105076</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>3768191119</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>丘</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>420102197008281029</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v>1970.8.28</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>15377629486</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>武汉市江岸区晟蓝花园5栋1305</v>
+          </cell>
+          <cell r="M38" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N38" t="str">
+            <v>何泽星</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>5</v>
+          </cell>
+          <cell r="B39">
+            <v>8.1</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>226316001105076</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>3768191119</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>丘</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v>420102197008281029</v>
+          </cell>
+          <cell r="I39" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J39" t="str">
+            <v>1970.8.28</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v>15377629486</v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>武汉市江岸区晟蓝花园5栋1305</v>
+          </cell>
+          <cell r="M39" t="str">
+            <v>惠济</v>
+          </cell>
+          <cell r="N39" t="str">
+            <v>何泽星</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>5</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>8-14</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>226316001102251</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>8541186145</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>朱芬</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H40" t="str">
+            <v>420106197809262448</v>
+          </cell>
+          <cell r="I40" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J40">
+            <v>28759</v>
+          </cell>
+          <cell r="K40" t="str">
+            <v>15872394995</v>
+          </cell>
+          <cell r="L40" t="str">
+            <v>武昌金地国际花园HR6-705</v>
+          </cell>
+          <cell r="M40" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N40" t="str">
+            <v>李伟</v>
+          </cell>
+          <cell r="O40" t="str">
+            <v>站点</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>5</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>8-14</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>226316001102251</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>8541186145</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>朱芬</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H41" t="str">
+            <v>420106197809262448</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="J41">
+            <v>28759</v>
+          </cell>
+          <cell r="K41" t="str">
+            <v>15872394995</v>
+          </cell>
+          <cell r="L41" t="str">
+            <v>武昌金地国际花园HR6-705</v>
+          </cell>
+          <cell r="M41" t="str">
+            <v>晒湖</v>
+          </cell>
+          <cell r="N41" t="str">
+            <v>李伟</v>
+          </cell>
+          <cell r="O41" t="str">
+            <v>站点</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>5</v>
+          </cell>
+          <cell r="B42">
+            <v>7.1</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>9262963</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>226316001103439</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>1641771421</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>袁</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v>420704198910096637</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="J42" t="str">
+            <v>89.10.9</v>
+          </cell>
+          <cell r="K42" t="str">
+            <v>13986404424</v>
+          </cell>
+          <cell r="L42" t="str">
+            <v>徐东一路凯旋门A座1楼</v>
+          </cell>
+          <cell r="M42" t="str">
+            <v>杨园</v>
+          </cell>
+          <cell r="N42" t="str">
+            <v>方辉礼</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>武煤百江燃气用户保险信息登记表</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>序号</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>用户编号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>武煤百江燃气用户保险信息登记表</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>序号</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>用户编号</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="M22" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>武煤百江燃气用户保险信息登记表</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>序号</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>用户编号</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="J42" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="K42" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="L42" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="M42" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="N42" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="O42" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>武煤百江燃气用户保险信息登记表</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>序号</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>用户编号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>武煤百江燃气用户保险信息登记表</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>序号</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>用户编号</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="M22" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>武煤百江燃气用户保险信息登记表</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>序号</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>用户编号</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="J42" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="K42" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="L42" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="M42" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="N42" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="O42" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>7.27</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>226316001103588</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>8634190701</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>杨丽</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106194902082042</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I3">
+            <v>2.08</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>17786019770</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>粮道街200号新号236号301</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>付学文</v>
+          </cell>
+          <cell r="N3">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>226316001103589</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>1857308333</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>胡继云</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>420107198310013734</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I4">
+            <v>10.01</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>13419561210</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>民主3村9号C门202</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>鲍俊权</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>226316001103587</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>4737251186</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>罗希陶</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>420106193809172022</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I5">
+            <v>9.17</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>88850490</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>胭脂路51#乙门3楼2</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>226316001103586</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>4045885515</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>郭林</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>420106196701240525</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I6">
+            <v>1.24</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>17786433976</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>粮道大巷3号中门5楼</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>7.27</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>226316001103588</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>8634190701</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>杨丽</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106194902082042</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I14">
+            <v>2.08</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>17786019770</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>粮道街200号新号236号301</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>付学文</v>
+          </cell>
+          <cell r="N14">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>226316001103589</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>1857308333</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>胡继云</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>420107198310013734</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I15">
+            <v>10.01</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>13419561210</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>民主3村9号C门202</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>鲍俊权</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>226316001103587</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>4737251186</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>罗希陶</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>420106193809172022</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I16">
+            <v>9.17</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>88850490</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>胭脂路51#乙门3楼2</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>226316001103586</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>4045885515</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>郭林</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>420106196701240525</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I17">
+            <v>1.24</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>17786433976</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>粮道大巷3号中门5楼</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>7.27</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>226316001103588</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>8634190701</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>杨丽</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106194902082042</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I25">
+            <v>2.08</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v>17786019770</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>粮道街200号新号236号301</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>付学文</v>
+          </cell>
+          <cell r="N25">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>226316001103589</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>1857308333</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>胡继云</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>420107198310013734</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I26">
+            <v>10.01</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v>13419561210</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>民主3村9号C门202</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>鲍俊权</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>226316001103587</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>4737251186</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>罗希陶</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>420106193809172022</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I27">
+            <v>9.17</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v>88850490</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>胭脂路51#乙门3楼2</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>226316001103586</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>4045885515</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>郭林</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>420106196701240525</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I28">
+            <v>1.24</v>
+          </cell>
+          <cell r="J28" t="str">
+            <v>17786433976</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>粮道大巷3号中门5楼</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M28" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>7.27</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>226316001103588</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>8634190701</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>杨丽</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106194902082042</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I36">
+            <v>2.08</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>17786019770</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>粮道街200号新号236号301</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>付学文</v>
+          </cell>
+          <cell r="N36">
+            <v>60040</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>226316001103589</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>1857308333</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>胡继云</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>420107198310013734</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I37">
+            <v>10.01</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v>13419561210</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>民主3村9号C门202</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M37" t="str">
+            <v>鲍俊权</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>226316001103587</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>4737251186</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>罗希陶</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>420106193809172022</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I38">
+            <v>9.17</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v>88850490</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>胭脂路51#乙门3楼2</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M38" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>226316001103586</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>4045885515</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>郭林</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>420106196701240525</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I39">
+            <v>1.24</v>
+          </cell>
+          <cell r="J39" t="str">
+            <v>17786433976</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v>粮道大巷3号中门5楼</v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M39" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>226316001103590</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>8055888738</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>马试华</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106194109280828</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I3">
+            <v>9.2799999999999994</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>88923443</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>胭脂路77号4单元2楼2号菜场楼上</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>226316001103593</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>4609503654</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>何似颖</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>420106199301052027</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I4">
+            <v>1.05</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>15926431776</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>白土塘B栋6单元303</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>226316001103591</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>7232199325</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>杨林生</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>42010619441206401X</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I5">
+            <v>12.06</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>15972071311</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>武昌何家垅工人村23单元3楼</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>226316001103583</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>5018421968</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>刘素兰</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>420106193406172028</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I6">
+            <v>6.17</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>88855648</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v xml:space="preserve">民主路422号卫生局宿舍新3栋1单元3楼 </v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>226316001103592</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>2255082403</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>丁伏宁</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>420106195704271242</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I7">
+            <v>4.2699999999999996</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>88869719</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>英坊巷B1栋2单元5楼4号</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>226316001103590</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>8055888738</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>马试华</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106194109280828</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I14">
+            <v>9.2799999999999994</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>88923443</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>胭脂路77号4单元2楼2号菜场楼上</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>226316001103593</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>4609503654</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>何似颖</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>420106199301052027</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I15">
+            <v>1.05</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>15926431776</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>白土塘B栋6单元303</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>226316001103591</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>7232199325</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>杨林生</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>42010619441206401X</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I16">
+            <v>12.06</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>15972071311</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>武昌何家垅工人村23单元3楼</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>226316001103583</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>5018421968</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>刘素兰</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>420106193406172028</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I17">
+            <v>6.17</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>88855648</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v xml:space="preserve">民主路422号卫生局宿舍新3栋1单元3楼 </v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>226316001103592</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>2255082403</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>丁伏宁</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>420106195704271242</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I18">
+            <v>4.2699999999999996</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v>88869719</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>英坊巷B1栋2单元5楼4号</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N18" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>226316001103590</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>8055888738</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>马试华</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106194109280828</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I25">
+            <v>9.2799999999999994</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v>88923443</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>胭脂路77号4单元2楼2号菜场楼上</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N25" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>226316001103593</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>4609503654</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>何似颖</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>420106199301052027</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I26">
+            <v>1.05</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v>15926431776</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>白土塘B栋6单元303</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N26" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>226316001103591</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>7232199325</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>杨林生</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>42010619441206401X</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I27">
+            <v>12.06</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v>15972071311</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>武昌何家垅工人村23单元3楼</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>226316001103583</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>5018421968</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>刘素兰</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>420106193406172028</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I28">
+            <v>6.17</v>
+          </cell>
+          <cell r="J28" t="str">
+            <v>88855648</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v xml:space="preserve">民主路422号卫生局宿舍新3栋1单元3楼 </v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M28" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N28" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>226316001103592</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>2255082403</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>丁伏宁</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>420106195704271242</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I29">
+            <v>4.2699999999999996</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v>88869719</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>英坊巷B1栋2单元5楼4号</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M29" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N29" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>226316001103590</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>8055888738</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>马试华</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106194109280828</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I36">
+            <v>9.2799999999999994</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>88923443</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>胭脂路77号4单元2楼2号菜场楼上</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N36" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>226316001103593</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>4609503654</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>何似颖</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>420106199301052027</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I37">
+            <v>1.05</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v>15926431776</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>白土塘B栋6单元303</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M37" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N37" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>226316001103591</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>7232199325</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>杨林生</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>42010619441206401X</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I38">
+            <v>12.06</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v>15972071311</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>武昌何家垅工人村23单元3楼</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M38" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N38" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>226316001103583</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>5018421968</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>刘素兰</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>420106193406172028</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I39">
+            <v>6.17</v>
+          </cell>
+          <cell r="J39" t="str">
+            <v>88855648</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v xml:space="preserve">民主路422号卫生局宿舍新3栋1单元3楼 </v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M39" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N39" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>7.29</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>226316001103592</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>2255082403</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>丁伏宁</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>420106195704271242</v>
+          </cell>
+          <cell r="H40" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I40">
+            <v>4.2699999999999996</v>
+          </cell>
+          <cell r="J40" t="str">
+            <v>88869719</v>
+          </cell>
+          <cell r="K40" t="str">
+            <v>英坊巷B1栋2单元5楼4号</v>
+          </cell>
+          <cell r="L40" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M40" t="str">
+            <v>戴宏明</v>
+          </cell>
+          <cell r="N40" t="str">
+            <v>无</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>7.30</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>226316001103595</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>8555776972</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>张定敏</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106196401242107</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I3">
+            <v>1.24</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>15307157719棋盘街8号3楼4门</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>226316001103596</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>4926334375</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>陈信杰</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>422426196607205612</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I4">
+            <v>7.2</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>15927297373</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>涵三宫19号3单元601</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>226316001103594</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>2915891579</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>胡子平</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>42010619490527121X</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I5">
+            <v>5.27</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>88840237</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>英坊小区A1栋4门7楼1号</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>7.30</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>226316001103595</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>8555776972</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>张定敏</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106196401242107</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I14">
+            <v>1.24</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>15307157719棋盘街8号3楼4门</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>226316001103596</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>4926334375</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>陈信杰</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>422426196607205612</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I15">
+            <v>7.2</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>15927297373</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>涵三宫19号3单元601</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>226316001103594</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>2915891579</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>胡子平</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>42010619490527121X</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I16">
+            <v>5.27</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>88840237</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>英坊小区A1栋4门7楼1号</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>7.30</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>226316001103595</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>8555776972</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>张定敏</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106196401242107</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I25">
+            <v>1.24</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v>15307157719棋盘街8号3楼4门</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>226316001103596</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>4926334375</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>陈信杰</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>422426196607205612</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I26">
+            <v>7.2</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v>15927297373</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>涵三宫19号3单元601</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>226316001103594</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>2915891579</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>胡子平</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>42010619490527121X</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I27">
+            <v>5.27</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v>88840237</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>英坊小区A1栋4门7楼1号</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>7.30</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>226316001103595</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>8555776972</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>张定敏</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106196401242107</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I36">
+            <v>1.24</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>15307157719棋盘街8号3楼4门</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>226316001103596</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>4926334375</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>陈信杰</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>422426196607205612</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I37">
+            <v>7.2</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v>15927297373</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>涵三宫19号3单元601</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M37" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>226316001103594</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>2915891579</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>胡子平</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>42010619490527121X</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I38">
+            <v>5.27</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v>88840237</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>英坊小区A1栋4门7楼1号</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M38" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103599</v>
+          </cell>
+          <cell r="D3">
+            <v>9211422347</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>周崇宁</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106195404042018</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I3">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="J3">
+            <v>18971232942</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>吕坦巷10号平房</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>李松平</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.1</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103599</v>
+          </cell>
+          <cell r="D14">
+            <v>9211422347</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>周崇宁</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106195404042018</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I14">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="J14">
+            <v>18971232942</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>吕坦巷10号平房</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>李松平</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.1</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103599</v>
+          </cell>
+          <cell r="D25">
+            <v>9211422347</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>周崇宁</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106195404042018</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I25">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="J25">
+            <v>18971232942</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>吕坦巷10号平房</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>李松平</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>8.1</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36">
+            <v>226316001103599</v>
+          </cell>
+          <cell r="D36">
+            <v>9211422347</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>周崇宁</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106195404042018</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I36">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="J36">
+            <v>18971232942</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>吕坦巷10号平房</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>李松平</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.3</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103597</v>
+          </cell>
+          <cell r="D3">
+            <v>7323349914</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>张其胜</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106193802173655</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I3">
+            <v>2.17</v>
+          </cell>
+          <cell r="J3">
+            <v>13260548275</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>老民主路369号新427号3楼</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.3</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103597</v>
+          </cell>
+          <cell r="D14">
+            <v>7323349914</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>张其胜</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106193802173655</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I14">
+            <v>2.17</v>
+          </cell>
+          <cell r="J14">
+            <v>13260548275</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>老民主路369号新427号3楼</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.3</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103597</v>
+          </cell>
+          <cell r="D25">
+            <v>7323349914</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>张其胜</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106193802173655</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I25">
+            <v>2.17</v>
+          </cell>
+          <cell r="J25">
+            <v>13260548275</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>老民主路369号新427号3楼</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>8.3</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36">
+            <v>226316001103597</v>
+          </cell>
+          <cell r="D36">
+            <v>7323349914</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>张其胜</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106193802173655</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I36">
+            <v>2.17</v>
+          </cell>
+          <cell r="J36">
+            <v>13260548275</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>老民主路369号新427号3楼</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.6</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103598</v>
+          </cell>
+          <cell r="D3">
+            <v>3209203056</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>吕咬奇</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106194610260417</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I3">
+            <v>10.26</v>
+          </cell>
+          <cell r="J3">
+            <v>88855316</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>荆南街35号403室</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.6</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103598</v>
+          </cell>
+          <cell r="D14">
+            <v>3209203056</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>吕咬奇</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106194610260417</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I14">
+            <v>10.26</v>
+          </cell>
+          <cell r="J14">
+            <v>88855316</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>荆南街35号403室</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.6</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103598</v>
+          </cell>
+          <cell r="D25">
+            <v>3209203056</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>吕咬奇</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106194610260417</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I25">
+            <v>10.26</v>
+          </cell>
+          <cell r="J25">
+            <v>88855316</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>荆南街35号403室</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>8.6</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36">
+            <v>226316001103598</v>
+          </cell>
+          <cell r="D36">
+            <v>3209203056</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>吕咬奇</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106194610260417</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I36">
+            <v>10.26</v>
+          </cell>
+          <cell r="J36">
+            <v>88855316</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>荆南街35号403室</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.10</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103602</v>
+          </cell>
+          <cell r="D3">
+            <v>8286252821</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>宁定有</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420100193610100314</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I3">
+            <v>10.1</v>
+          </cell>
+          <cell r="J3">
+            <v>88860826</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>怡海大厦3单元401</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.10</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103602</v>
+          </cell>
+          <cell r="D14">
+            <v>8286252821</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>宁定有</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420100193610100314</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I14">
+            <v>10.1</v>
+          </cell>
+          <cell r="J14">
+            <v>88860826</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>怡海大厦3单元401</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.10</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103602</v>
+          </cell>
+          <cell r="D25">
+            <v>8286252821</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>宁定有</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420100193610100314</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I25">
+            <v>10.1</v>
+          </cell>
+          <cell r="J25">
+            <v>88860826</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>怡海大厦3单元401</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>8.10</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36">
+            <v>226316001103602</v>
+          </cell>
+          <cell r="D36">
+            <v>8286252821</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>宁定有</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420100193610100314</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I36">
+            <v>10.1</v>
+          </cell>
+          <cell r="J36">
+            <v>88860826</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>怡海大厦3单元401</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.11</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103603</v>
+          </cell>
+          <cell r="D3">
+            <v>3733438891</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>胡</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106194104092422</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I3">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="J3">
+            <v>18120416146</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>涵三宫73号2单元2楼</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.11</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103603</v>
+          </cell>
+          <cell r="D14">
+            <v>3733438891</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>胡</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106194104092422</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I14">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="J14">
+            <v>18120416146</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>涵三宫73号2单元2楼</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.11</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103603</v>
+          </cell>
+          <cell r="D25">
+            <v>3733438891</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>胡</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106194104092422</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I25">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="J25">
+            <v>18120416146</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>涵三宫73号2单元2楼</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>8.11</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36">
+            <v>226316001103603</v>
+          </cell>
+          <cell r="D36">
+            <v>3733438891</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>胡</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106194104092422</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I36">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="J36">
+            <v>18120416146</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>涵三宫73号2单元2楼</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.15</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103606</v>
+          </cell>
+          <cell r="D3">
+            <v>7528663917</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>胡丽珍</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106195704282021</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I3">
+            <v>4.28</v>
+          </cell>
+          <cell r="J3">
+            <v>88856283</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>粮道街215号3单元503室</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C4">
+            <v>226316001103607</v>
+          </cell>
+          <cell r="D4">
+            <v>1769426574</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>王明春</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>420106195804054456</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>4.5</v>
+          </cell>
+          <cell r="J4">
+            <v>15327181390</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>胭脂路55号3楼</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.15</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103606</v>
+          </cell>
+          <cell r="D14">
+            <v>7528663917</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>胡丽珍</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106195704282021</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I14">
+            <v>4.28</v>
+          </cell>
+          <cell r="J14">
+            <v>88856283</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>粮道街215号3单元503室</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C15">
+            <v>226316001103607</v>
+          </cell>
+          <cell r="D15">
+            <v>1769426574</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>王明春</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>420106195804054456</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>4.5</v>
+          </cell>
+          <cell r="J15">
+            <v>15327181390</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>胭脂路55号3楼</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.15</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103606</v>
+          </cell>
+          <cell r="D25">
+            <v>7528663917</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>胡丽珍</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106195704282021</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I25">
+            <v>4.28</v>
+          </cell>
+          <cell r="J25">
+            <v>88856283</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>粮道街215号3单元503室</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C26">
+            <v>226316001103607</v>
+          </cell>
+          <cell r="D26">
+            <v>1769426574</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>王明春</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>420106195804054456</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>4.5</v>
+          </cell>
+          <cell r="J26">
+            <v>15327181390</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>胭脂路55号3楼</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>8.15</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36">
+            <v>226316001103606</v>
+          </cell>
+          <cell r="D36">
+            <v>7528663917</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>胡丽珍</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106195704282021</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I36">
+            <v>4.28</v>
+          </cell>
+          <cell r="J36">
+            <v>88856283</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>粮道街215号3单元503室</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C37">
+            <v>226316001103607</v>
+          </cell>
+          <cell r="D37">
+            <v>1769426574</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>王明春</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>420106195804054456</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>4.5</v>
+          </cell>
+          <cell r="J37">
+            <v>15327181390</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>胭脂路55号3楼</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M37" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.16</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103605</v>
+          </cell>
+          <cell r="D3">
+            <v>8272603141</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>肖凯</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106199012302050</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I3">
+            <v>12.3</v>
+          </cell>
+          <cell r="J3">
+            <v>88913868</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>荆南街9栋4楼</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.16</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103605</v>
+          </cell>
+          <cell r="D14">
+            <v>8272603141</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>肖凯</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106199012302050</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I14">
+            <v>12.3</v>
+          </cell>
+          <cell r="J14">
+            <v>88913868</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>荆南街9栋4楼</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>双柏</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.16</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103605</v>
+          </cell>
+          <cell r="D25">
+            <v>8272603141</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>肖凯</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106199012302050</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I25">
+            <v>12.3</v>
+          </cell>
+          <cell r="J25">
+            <v>88913868</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>荆南街9栋4楼</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>8.16</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36">
+            <v>226316001103605</v>
+          </cell>
+          <cell r="D36">
+            <v>8272603141</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>肖凯</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>420106199012302050</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I36">
+            <v>12.3</v>
+          </cell>
+          <cell r="J36">
+            <v>88913868</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>荆南街9栋4楼</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.18</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103601</v>
+          </cell>
+          <cell r="D3">
+            <v>7543159692</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>候庆辉</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>42010619391203201X</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I3">
+            <v>12.3</v>
+          </cell>
+          <cell r="J3">
+            <v>88851337</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>荆南街39号5楼6层楼的房子</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.18</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103601</v>
+          </cell>
+          <cell r="D14">
+            <v>7543159692</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>候庆辉</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>42010619391203201X</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I14">
+            <v>12.3</v>
+          </cell>
+          <cell r="J14">
+            <v>88851337</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>荆南街39号5楼6层楼的房子</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.18</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103601</v>
+          </cell>
+          <cell r="D25">
+            <v>7543159692</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>候庆辉</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>42010619391203201X</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I25">
+            <v>12.3</v>
+          </cell>
+          <cell r="J25">
+            <v>88851337</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>荆南街39号5楼6层楼的房子</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>8.18</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C36">
+            <v>226316001103601</v>
+          </cell>
+          <cell r="D36">
+            <v>7543159692</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>候庆辉</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>42010619391203201X</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I36">
+            <v>12.3</v>
+          </cell>
+          <cell r="J36">
+            <v>88851337</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>荆南街39号5楼6层楼的房子</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.19</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103609</v>
+          </cell>
+          <cell r="D3">
+            <v>3257465558</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>赵东峰</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420106196312209014</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I3">
+            <v>12.2</v>
+          </cell>
+          <cell r="J3">
+            <v>15607151560</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>民主路416号3单元3楼1号（武警医院对面）赵东峰</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C4">
+            <v>226316001103608</v>
+          </cell>
+          <cell r="D4">
+            <v>8802049101</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>丁红梅</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>420622196708207020</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>8.20</v>
+          </cell>
+          <cell r="J4">
+            <v>15392824758</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>民主路378号4楼</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>226316001106507</v>
+          </cell>
+          <cell r="D5">
+            <v>6988004341</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>杨执荣</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>420106194302122047</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I5">
+            <v>2.12</v>
+          </cell>
+          <cell r="J5">
+            <v>17079893625</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>粮道大巷37号7楼</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>226316001103604</v>
+          </cell>
+          <cell r="D6">
+            <v>7810294735</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>杨祖芳</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>420106193710272023</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I6">
+            <v>10.27</v>
+          </cell>
+          <cell r="J6">
+            <v>88847529</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>胭脂路花园山省中医院第10栋乙门5楼左边</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>226316001106509</v>
+          </cell>
+          <cell r="D7">
+            <v>5171100339</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>刘尚炎</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>42010619330117203X</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I7">
+            <v>11.6</v>
+          </cell>
+          <cell r="J7">
+            <v>15171419689</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>粮道街老133号新163号3楼</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>226316001106508</v>
+          </cell>
+          <cell r="D8">
+            <v>4461906334</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>王家顺</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>420106195002082017</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I8">
+            <v>2.8</v>
+          </cell>
+          <cell r="J8">
+            <v>18120429756</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>英坊小区A1栋3单元202（1瓶）</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.19</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103609</v>
+          </cell>
+          <cell r="D14">
+            <v>3257465558</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>赵东峰</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420106196312209014</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I14">
+            <v>12.2</v>
+          </cell>
+          <cell r="J14">
+            <v>15607151560</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>民主路416号3单元3楼1号（武警医院对面）赵东峰</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C15">
+            <v>226316001103608</v>
+          </cell>
+          <cell r="D15">
+            <v>8802049101</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>丁红梅</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>420622196708207020</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>8.20</v>
+          </cell>
+          <cell r="J15">
+            <v>15392824758</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>民主路378号4楼</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>226316001106507</v>
+          </cell>
+          <cell r="D16">
+            <v>6988004341</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>杨执荣</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>420106194302122047</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I16">
+            <v>2.12</v>
+          </cell>
+          <cell r="J16">
+            <v>17079893625</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>粮道大巷37号7楼</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>226316001103604</v>
+          </cell>
+          <cell r="D17">
+            <v>7810294735</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>杨祖芳</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>420106193710272023</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I17">
+            <v>10.27</v>
+          </cell>
+          <cell r="J17">
+            <v>88847529</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>胭脂路花园山省中医院第10栋乙门5楼左边</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>226316001106509</v>
+          </cell>
+          <cell r="D18">
+            <v>5171100339</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>刘尚炎</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>42010619330117203X</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I18">
+            <v>11.6</v>
+          </cell>
+          <cell r="J18">
+            <v>15171419689</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>粮道街老133号新163号3楼</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>226316001106508</v>
+          </cell>
+          <cell r="D19">
+            <v>4461906334</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>王家顺</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>420106195002082017</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I19">
+            <v>2.8</v>
+          </cell>
+          <cell r="J19">
+            <v>18120429756</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>英坊小区A1栋3单元202（1瓶）</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>8.19</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C25">
+            <v>226316001103609</v>
+          </cell>
+          <cell r="D25">
+            <v>3257465558</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>赵东峰</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>420106196312209014</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I25">
+            <v>12.2</v>
+          </cell>
+          <cell r="J25">
+            <v>15607151560</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>民主路416号3单元3楼1号（武警医院对面）赵东峰</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C26">
+            <v>226316001103608</v>
+          </cell>
+          <cell r="D26">
+            <v>8802049101</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>丁红梅</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>420622196708207020</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>8.20</v>
+          </cell>
+          <cell r="J26">
+            <v>15392824758</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>民主路378号4楼</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>226316001106507</v>
+          </cell>
+          <cell r="D27">
+            <v>6988004341</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>杨执荣</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>420106194302122047</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I27">
+            <v>2.12</v>
+          </cell>
+          <cell r="J27">
+            <v>17079893625</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>粮道大巷37号7楼</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M27" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>226316001103604</v>
+          </cell>
+          <cell r="D28">
+            <v>7810294735</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>杨祖芳</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>420106193710272023</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I28">
+            <v>10.27</v>
+          </cell>
+          <cell r="J28">
+            <v>88847529</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>胭脂路花园山省中医院第10栋乙门5楼左边</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M28" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>226316001106509</v>
+          </cell>
+          <cell r="D29">
+            <v>5171100339</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>刘尚炎</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>42010619330117203X</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I29">
+            <v>11.6</v>
+          </cell>
+          <cell r="J29">
+            <v>15171419689</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>粮道街老133号新163号3楼</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M29" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>226316001106508</v>
+          </cell>
+          <cell r="D30">
+            <v>4461906334</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>王家顺</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>420106195002082017</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I30">
+            <v>2.8</v>
+          </cell>
+          <cell r="J30">
+            <v>18120429756</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>英坊小区A1栋3单元202（1瓶）</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M30" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.20</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3">
+            <v>226316001103610</v>
+          </cell>
+          <cell r="D3">
+            <v>1628165766</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>肖翠</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>420111198705082325</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I3">
+            <v>5.8</v>
+          </cell>
+          <cell r="J3">
+            <v>18627946502</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>工人村20号3楼</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C4">
+            <v>226316001103612</v>
+          </cell>
+          <cell r="D4">
+            <v>6704358347</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>胡华华</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>420106195203104032</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>3.10</v>
+          </cell>
+          <cell r="J4">
+            <v>17612749133</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>民主路老434号新598号3楼东方酒店对面</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>226316001103611</v>
+          </cell>
+          <cell r="D5">
+            <v>6792512048</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>黄晓翘</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>420106194901222015</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I5">
+            <v>1.22</v>
+          </cell>
+          <cell r="J5">
+            <v>17771747553</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>民主一村15号乙门404室</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>8.20</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C14">
+            <v>226316001103610</v>
+          </cell>
+          <cell r="D14">
+            <v>1628165766</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>肖翠</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>420111198705082325</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I14">
+            <v>5.8</v>
+          </cell>
+          <cell r="J14">
+            <v>18627946502</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>工人村20号3楼</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C15">
+            <v>226316001103612</v>
+          </cell>
+          <cell r="D15">
+            <v>6704358347</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>胡华华</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>420106195203104032</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>3.10</v>
+          </cell>
+          <cell r="J15">
+            <v>17612749133</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>民主路老434号新598号3楼东方酒店对面</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>226316001103611</v>
+          </cell>
+          <cell r="D16">
+            <v>6792512048</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>黄晓翘</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>420106194901222015</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>男</v>
+          </cell>
+          <cell r="I16">
+            <v>1.22</v>
+          </cell>
+          <cell r="J16">
+            <v>17771747553</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>民主一村15号乙门404室</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>购买日期</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>面额</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>保险卡号</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>保险卡密码</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>投保人名称</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>证件类型</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>投保人证件号</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>性别</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>投保人生日</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>电话</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>住址</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>门店</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>门店销售人员姓名</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>客服销售人员工号</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>8.21</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>226316001106522</v>
+          </cell>
+          <cell r="D3">
+            <v>4786995371</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>吴佩来</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>650102193910022149</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I3">
+            <v>1.2</v>
+          </cell>
+          <cell r="J3">
+            <v>88848307</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>荆南街42号2栋102</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>226316001106521</v>
+          </cell>
+          <cell r="D4">
+            <v>6336694770</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>胡丹</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>身份证</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>421202198904122342</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>女</v>
+          </cell>
+          <cell r="I4">
+            <v>4.12</v>
+          </cell>
+          <cell r="J4">
+            <v>18171282207</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>三道街6号1栋甲门1楼2号</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>双柏</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>戴宏明</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -819,7 +10719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
